--- a/Code/Results/Cases/Case_4_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.552098178470601</v>
+        <v>2.578783052037522</v>
       </c>
       <c r="C2">
-        <v>0.3153583131062305</v>
+        <v>0.08283476723971717</v>
       </c>
       <c r="D2">
-        <v>0.2257145815409416</v>
+        <v>0.451422211870053</v>
       </c>
       <c r="E2">
-        <v>0.05166363329165335</v>
+        <v>0.1239002791388897</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.426428082448467</v>
+        <v>3.958298606662311</v>
       </c>
       <c r="H2">
-        <v>1.97274338139465</v>
+        <v>2.884888240147177</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04324778046025912</v>
+        <v>0.03989980598478482</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2445041172051674</v>
+        <v>0.4631850886073039</v>
       </c>
       <c r="M2">
-        <v>0.4796768637854143</v>
+        <v>0.5963150574937401</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.241134164624441</v>
+        <v>2.521121048294219</v>
       </c>
       <c r="C3">
-        <v>0.274209261127865</v>
+        <v>0.07191187736162874</v>
       </c>
       <c r="D3">
-        <v>0.2153695578766843</v>
+        <v>0.4510199755253126</v>
       </c>
       <c r="E3">
-        <v>0.05186016557027884</v>
+        <v>0.124181825714758</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.177508186900525</v>
+        <v>3.907521571533351</v>
       </c>
       <c r="H3">
-        <v>1.864682676295445</v>
+        <v>2.867689290597156</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04020613596419054</v>
+        <v>0.0387980989849126</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2267782433275727</v>
+        <v>0.4617516459770457</v>
       </c>
       <c r="M3">
-        <v>0.4264358759076572</v>
+        <v>0.5875703252091284</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054211838082836</v>
+        <v>2.487437561765148</v>
       </c>
       <c r="C4">
-        <v>0.249216082115737</v>
+        <v>0.06522357415873614</v>
       </c>
       <c r="D4">
-        <v>0.2093289612403879</v>
+        <v>0.4509322897332879</v>
       </c>
       <c r="E4">
-        <v>0.05200739476277771</v>
+        <v>0.1243706147372832</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.030344527809376</v>
+        <v>3.877941895747853</v>
       </c>
       <c r="H4">
-        <v>1.801312232896805</v>
+        <v>2.858151729406103</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03834443314036307</v>
+        <v>0.03810723964365792</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2162844418673515</v>
+        <v>0.4610814337375828</v>
       </c>
       <c r="M4">
-        <v>0.3945278836245976</v>
+        <v>0.5825629157716534</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.978938049415547</v>
+        <v>2.4741439770292</v>
       </c>
       <c r="C5">
-        <v>0.2390858608692241</v>
+        <v>0.06250252445360616</v>
       </c>
       <c r="D5">
-        <v>0.2069403320197978</v>
+        <v>0.4509366144258564</v>
       </c>
       <c r="E5">
-        <v>0.05207386214460819</v>
+        <v>0.1244515539518849</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.971667195270811</v>
+        <v>3.866287541247601</v>
       </c>
       <c r="H5">
-        <v>1.776174661782676</v>
+        <v>2.854521414227236</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03758625782171165</v>
+        <v>0.03782206304608593</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2120985666945785</v>
+        <v>0.4608611344327969</v>
       </c>
       <c r="M5">
-        <v>0.3817021886693084</v>
+        <v>0.5806133605023902</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.966490128012765</v>
+        <v>2.471962719760597</v>
       </c>
       <c r="C6">
-        <v>0.2374066685731435</v>
+        <v>0.06205096336978499</v>
       </c>
       <c r="D6">
-        <v>0.2065479615365575</v>
+        <v>0.4509397520208154</v>
       </c>
       <c r="E6">
-        <v>0.05208528404150226</v>
+        <v>0.1244652359089118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.961998261012269</v>
+        <v>3.864376417536874</v>
       </c>
       <c r="H6">
-        <v>1.772040305772066</v>
+        <v>2.853934059787122</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03746036521368268</v>
+        <v>0.03777448882064505</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2114087565559686</v>
+        <v>0.4608277448831828</v>
       </c>
       <c r="M6">
-        <v>0.3795826444528103</v>
+        <v>0.580295135066109</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053193169685812</v>
+        <v>2.487256527939053</v>
       </c>
       <c r="C7">
-        <v>0.2490792582914594</v>
+        <v>0.06518685913570721</v>
       </c>
       <c r="D7">
-        <v>0.2092964586357624</v>
+        <v>0.4509321858611344</v>
       </c>
       <c r="E7">
-        <v>0.05200826522913538</v>
+        <v>0.1243716900862495</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.029548118136603</v>
+        <v>3.877783105903063</v>
       </c>
       <c r="H7">
-        <v>1.800970518846924</v>
+        <v>2.858101733023119</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03833420741415949</v>
+        <v>0.03810340844400528</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2162276331356594</v>
+        <v>0.4610782488067287</v>
       </c>
       <c r="M7">
-        <v>0.3943542195792276</v>
+        <v>0.5825362549056408</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.443976028997611</v>
+        <v>2.558543854466222</v>
       </c>
       <c r="C8">
-        <v>0.3011048310346212</v>
+        <v>0.07906464960333892</v>
       </c>
       <c r="D8">
-        <v>0.2220796690055806</v>
+        <v>0.451250460706845</v>
       </c>
       <c r="E8">
-        <v>0.05172575489961329</v>
+        <v>0.1239940545654621</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.339338736964038</v>
+        <v>3.940457788445144</v>
       </c>
       <c r="H8">
-        <v>1.934826244291173</v>
+        <v>2.878745272203531</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04219717282677138</v>
+        <v>0.03952291335384572</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2383064993875905</v>
+        <v>0.4626472826748369</v>
       </c>
       <c r="M8">
-        <v>0.4611446675211397</v>
+        <v>0.5932247592036148</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.247659184011866</v>
+        <v>2.712013223079509</v>
       </c>
       <c r="C9">
-        <v>0.4059885452728338</v>
+        <v>0.1064326582447848</v>
       </c>
       <c r="D9">
-        <v>0.2498831290995298</v>
+        <v>0.4531388747683707</v>
       </c>
       <c r="E9">
-        <v>0.05139286489934136</v>
+        <v>0.1233796748566487</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.998546660823052</v>
+        <v>4.076144856087978</v>
       </c>
       <c r="H9">
-        <v>2.224094206387178</v>
+        <v>2.927383890766691</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0498694391275194</v>
+        <v>0.04219338478493029</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.285080149426733</v>
+        <v>0.4673893541731928</v>
       </c>
       <c r="M9">
-        <v>0.5993136316405057</v>
+        <v>0.6170584856577008</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.869606072621309</v>
+        <v>2.833148215152846</v>
       </c>
       <c r="C10">
-        <v>0.4858989359009058</v>
+        <v>0.1266465873551397</v>
       </c>
       <c r="D10">
-        <v>0.2723931825312889</v>
+        <v>0.4552983298912352</v>
       </c>
       <c r="E10">
-        <v>0.05129936263843593</v>
+        <v>0.1230050205094848</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.524849750449079</v>
+        <v>4.183786673331923</v>
       </c>
       <c r="H10">
-        <v>2.457852379566702</v>
+        <v>2.968156350206982</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05564520082421964</v>
+        <v>0.04408810025389798</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3221655828130565</v>
+        <v>0.4718890933468316</v>
       </c>
       <c r="M10">
-        <v>0.7067627519483324</v>
+        <v>0.6363273277650592</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.161638212946116</v>
+        <v>2.890086915892539</v>
       </c>
       <c r="C11">
-        <v>0.5231615363910294</v>
+        <v>0.1358685822018231</v>
       </c>
       <c r="D11">
-        <v>0.2831927271032555</v>
+        <v>0.4564487184246957</v>
       </c>
       <c r="E11">
-        <v>0.05129386007643966</v>
+        <v>0.122851205526139</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.776096057318682</v>
+        <v>4.234518149942232</v>
       </c>
       <c r="H11">
-        <v>2.570073634290168</v>
+        <v>2.987813270890342</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05832385119903805</v>
+        <v>0.04493582610817981</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3397830392067931</v>
+        <v>0.4741569552042222</v>
       </c>
       <c r="M11">
-        <v>0.7573350703651585</v>
+        <v>0.6454767041233893</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.27375030732253</v>
+        <v>2.911912449505053</v>
       </c>
       <c r="C12">
-        <v>0.5374311375132947</v>
+        <v>0.1393647394902189</v>
       </c>
       <c r="D12">
-        <v>0.2873729743932358</v>
+        <v>0.4569085239665753</v>
       </c>
       <c r="E12">
-        <v>0.05129751375588487</v>
+        <v>0.1227953465700971</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.87319812352041</v>
+        <v>4.25398524027247</v>
       </c>
       <c r="H12">
-        <v>2.613537378462354</v>
+        <v>2.995417431795204</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05934759650155996</v>
+        <v>0.04525482530983282</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3465767409352338</v>
+        <v>0.4750475066813209</v>
       </c>
       <c r="M12">
-        <v>0.7767677429573467</v>
+        <v>0.6489966257364728</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.249533330658778</v>
+        <v>2.907200178532321</v>
       </c>
       <c r="C13">
-        <v>0.5343503585715155</v>
+        <v>0.1386115993940678</v>
       </c>
       <c r="D13">
-        <v>0.2864684722932793</v>
+        <v>0.4568084210331165</v>
       </c>
       <c r="E13">
-        <v>0.05129646451122305</v>
+        <v>0.1228072706461951</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.852193745812087</v>
+        <v>4.24978122148417</v>
       </c>
       <c r="H13">
-        <v>2.604131511114417</v>
+        <v>2.993772584947124</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05912666106030429</v>
+        <v>0.04518621240467979</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3451078945778647</v>
+        <v>0.4748542979352663</v>
       </c>
       <c r="M13">
-        <v>0.7725693548649133</v>
+        <v>0.6482360894509753</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.170829815570812</v>
+        <v>2.891877220686467</v>
       </c>
       <c r="C14">
-        <v>0.5243321419576432</v>
+        <v>0.1361561322700311</v>
       </c>
       <c r="D14">
-        <v>0.2835347575182681</v>
+        <v>0.456486062245375</v>
       </c>
       <c r="E14">
-        <v>0.05129404311346075</v>
+        <v>0.1228465621399799</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.784043797380718</v>
+        <v>4.236114570962627</v>
       </c>
       <c r="H14">
-        <v>2.57362926494136</v>
+        <v>2.988435647166284</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05840787427713678</v>
+        <v>0.04496211063164068</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3403394162916413</v>
+        <v>0.4742295848814422</v>
       </c>
       <c r="M14">
-        <v>0.7589279159732882</v>
+        <v>0.6457651825637925</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.122827283209062</v>
+        <v>2.882525870227653</v>
       </c>
       <c r="C15">
-        <v>0.5182173115945545</v>
+        <v>0.1346526121336922</v>
       </c>
       <c r="D15">
-        <v>0.2817499100196557</v>
+        <v>0.456291757368021</v>
       </c>
       <c r="E15">
-        <v>0.05129332033065825</v>
+        <v>0.1228709401690766</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.742563611870139</v>
+        <v>4.227776787577966</v>
       </c>
       <c r="H15">
-        <v>2.555075720610546</v>
+        <v>2.985187551685158</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05796888595437011</v>
+        <v>0.04482457998411249</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3374349969389669</v>
+        <v>0.4738510662777031</v>
       </c>
       <c r="M15">
-        <v>0.7506101038093576</v>
+        <v>0.6442588777012617</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.850722159883958</v>
+        <v>2.829464069745143</v>
       </c>
       <c r="C16">
-        <v>0.4834843779203766</v>
+        <v>0.1260444571923927</v>
       </c>
       <c r="D16">
-        <v>0.2716995115283964</v>
+        <v>0.4552265318971251</v>
       </c>
       <c r="E16">
-        <v>0.05130050138233866</v>
+        <v>0.1230154068798122</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.508689644664798</v>
+        <v>4.180506968372299</v>
       </c>
       <c r="H16">
-        <v>2.450646905369581</v>
+        <v>2.966894131180538</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05547134267888154</v>
+        <v>0.04403241591127482</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3210305048620512</v>
+        <v>0.4717453279874491</v>
       </c>
       <c r="M16">
-        <v>0.7034949821475109</v>
+        <v>0.6357371232679228</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.686271704473825</v>
+        <v>2.797382312456989</v>
       </c>
       <c r="C17">
-        <v>0.4624289211318171</v>
+        <v>0.1207705565940103</v>
       </c>
       <c r="D17">
-        <v>0.2656841125258751</v>
+        <v>0.4546160996245305</v>
       </c>
       <c r="E17">
-        <v>0.05131466746169266</v>
+        <v>0.1231082870710809</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.368419205424743</v>
+        <v>4.15196215729236</v>
       </c>
       <c r="H17">
-        <v>2.388171897990958</v>
+        <v>2.955956536796123</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05395365787797246</v>
+        <v>0.04354283177149654</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3111682384259353</v>
+        <v>0.470510101149074</v>
       </c>
       <c r="M17">
-        <v>0.6750508900558643</v>
+        <v>0.6306076574445001</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.592526635258992</v>
+        <v>2.779102313013482</v>
       </c>
       <c r="C18">
-        <v>0.4504022263704996</v>
+        <v>0.117739639753438</v>
       </c>
       <c r="D18">
-        <v>0.2622762021425444</v>
+        <v>0.4542808110459191</v>
       </c>
       <c r="E18">
-        <v>0.05132627328605288</v>
+        <v>0.1231632735066208</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.288835268809294</v>
+        <v>4.135709890142977</v>
       </c>
       <c r="H18">
-        <v>2.352783518289925</v>
+        <v>2.949769876619001</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05308540994417044</v>
+        <v>0.04325989885047576</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3055650426605894</v>
+        <v>0.4698204243525623</v>
       </c>
       <c r="M18">
-        <v>0.6588473784516324</v>
+        <v>0.6276934538847101</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.560924730224428</v>
+        <v>2.772942648742287</v>
       </c>
       <c r="C19">
-        <v>0.4463438030414864</v>
+        <v>0.1167138462949424</v>
       </c>
       <c r="D19">
-        <v>0.2611309809482236</v>
+        <v>0.4541700040879846</v>
       </c>
       <c r="E19">
-        <v>0.05133078505376787</v>
+        <v>0.1231821596875777</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.262070379168932</v>
+        <v>4.130235580899409</v>
       </c>
       <c r="H19">
-        <v>2.340891870281268</v>
+        <v>2.947693072776929</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05279218335888913</v>
+        <v>0.04316387224621465</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3036793795420181</v>
+        <v>0.4695904830555406</v>
       </c>
       <c r="M19">
-        <v>0.6533869822763592</v>
+        <v>0.6267129585259923</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.703689066038635</v>
+        <v>2.800779606368053</v>
       </c>
       <c r="C20">
-        <v>0.4646614418247736</v>
+        <v>0.1213317132881855</v>
       </c>
       <c r="D20">
-        <v>0.2663190116045513</v>
+        <v>0.4546794441981348</v>
       </c>
       <c r="E20">
-        <v>0.05131279877511297</v>
+        <v>0.1230982379421359</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.383236039152536</v>
+        <v>4.154983608163036</v>
       </c>
       <c r="H20">
-        <v>2.394765170441133</v>
+        <v>2.957110054918843</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0541147194177789</v>
+        <v>0.04359508704616388</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3122108174689515</v>
+        <v>0.4706394412025645</v>
       </c>
       <c r="M20">
-        <v>0.6780623233585032</v>
+        <v>0.631149958237927</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.193903660774197</v>
+        <v>2.896370774396416</v>
       </c>
       <c r="C21">
-        <v>0.5272701742225649</v>
+        <v>0.136877252902508</v>
       </c>
       <c r="D21">
-        <v>0.2843939110229314</v>
+        <v>0.4565800905199637</v>
       </c>
       <c r="E21">
-        <v>0.05129459505256051</v>
+        <v>0.1228349564976892</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.804005635764554</v>
+        <v>4.240121825389508</v>
       </c>
       <c r="H21">
-        <v>2.582561188531997</v>
+        <v>2.98999887095033</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05861872662724821</v>
+        <v>0.04502798927835627</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3417365843158535</v>
+        <v>0.4744122162770168</v>
       </c>
       <c r="M21">
-        <v>0.7629267493879652</v>
+        <v>0.6464894478751049</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.523304040554024</v>
+        <v>2.960384618502246</v>
       </c>
       <c r="C22">
-        <v>0.5691318333163622</v>
+        <v>0.1470604876637083</v>
       </c>
       <c r="D22">
-        <v>0.2967413048114622</v>
+        <v>0.4579632106059108</v>
       </c>
       <c r="E22">
-        <v>0.05131637480509177</v>
+        <v>0.1226768017682831</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.090577583784466</v>
+        <v>4.297258933860292</v>
       </c>
       <c r="H22">
-        <v>2.711008060197514</v>
+        <v>3.012429667674724</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06161830613553221</v>
+        <v>0.04595273334862071</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3617550029069179</v>
+        <v>0.4770630725820268</v>
       </c>
       <c r="M22">
-        <v>0.8200563402580485</v>
+        <v>0.6568367665979196</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.346592254990469</v>
+        <v>2.926078222754313</v>
       </c>
       <c r="C23">
-        <v>0.5466928021805018</v>
+        <v>0.1416233129880879</v>
       </c>
       <c r="D23">
-        <v>0.2900986267195549</v>
+        <v>0.4572121124330266</v>
       </c>
       <c r="E23">
-        <v>0.05130151724851384</v>
+        <v>0.122759939377433</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.936474337813138</v>
+        <v>4.266626242517646</v>
       </c>
       <c r="H23">
-        <v>2.641886185755141</v>
+        <v>3.000371949154498</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06001150263177379</v>
+        <v>0.04546024618123923</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.350999290451</v>
+        <v>0.4756313221279953</v>
       </c>
       <c r="M23">
-        <v>0.7893986185994279</v>
+        <v>0.6512847196336367</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.695812202001775</v>
+        <v>2.799243178279028</v>
       </c>
       <c r="C24">
-        <v>0.4636518771881128</v>
+        <v>0.1210780108737026</v>
       </c>
       <c r="D24">
-        <v>0.2660318174306582</v>
+        <v>0.4546507573486736</v>
       </c>
       <c r="E24">
-        <v>0.05131363285671764</v>
+        <v>0.1231027762057808</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.376534067973409</v>
+        <v>4.153617116637292</v>
       </c>
       <c r="H24">
-        <v>2.391782712214535</v>
+        <v>2.956588233274033</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0540418902850881</v>
+        <v>0.04357146699958037</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3117392606653908</v>
+        <v>0.4705809027995684</v>
       </c>
       <c r="M24">
-        <v>0.6767003919352561</v>
+        <v>0.6309046756751329</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.025404617394884</v>
+        <v>2.669027243591586</v>
       </c>
       <c r="C25">
-        <v>0.3772022136589896</v>
+        <v>0.0990111116033745</v>
       </c>
       <c r="D25">
-        <v>0.2420286443618238</v>
+        <v>0.4524925305304492</v>
       </c>
       <c r="E25">
-        <v>0.05145768483636637</v>
+        <v>0.1235323933191461</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.813669881870652</v>
+        <v>4.038053008738444</v>
       </c>
       <c r="H25">
-        <v>2.142499984600306</v>
+        <v>2.913345934018508</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04777586197597827</v>
+        <v>0.04148289133994609</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2719965294171658</v>
+        <v>0.465928176815595</v>
       </c>
       <c r="M25">
-        <v>0.5610159444982514</v>
+        <v>0.6103025597813598</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_114/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.578783052037522</v>
+        <v>2.552098178470601</v>
       </c>
       <c r="C2">
-        <v>0.08283476723971717</v>
+        <v>0.3153583131057474</v>
       </c>
       <c r="D2">
-        <v>0.451422211870053</v>
+        <v>0.2257145815410695</v>
       </c>
       <c r="E2">
-        <v>0.1239002791388897</v>
+        <v>0.05166363329168266</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.958298606662311</v>
+        <v>3.426428082448496</v>
       </c>
       <c r="H2">
-        <v>2.884888240147177</v>
+        <v>1.97274338139465</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03989980598478482</v>
+        <v>0.04324778046024491</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4631850886073039</v>
+        <v>0.2445041172050253</v>
       </c>
       <c r="M2">
-        <v>0.5963150574937401</v>
+        <v>0.4796768637854143</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.521121048294219</v>
+        <v>2.241134164624327</v>
       </c>
       <c r="C3">
-        <v>0.07191187736162874</v>
+        <v>0.2742092611271261</v>
       </c>
       <c r="D3">
-        <v>0.4510199755253126</v>
+        <v>0.2153695578767696</v>
       </c>
       <c r="E3">
-        <v>0.124181825714758</v>
+        <v>0.05186016557023532</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.907521571533351</v>
+        <v>3.177508186900553</v>
       </c>
       <c r="H3">
-        <v>2.867689290597156</v>
+        <v>1.864682676295473</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0387980989849126</v>
+        <v>0.0402061359642012</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4617516459770457</v>
+        <v>0.2267782433275869</v>
       </c>
       <c r="M3">
-        <v>0.5875703252091284</v>
+        <v>0.4264358759076572</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.487437561765148</v>
+        <v>2.054211838082892</v>
       </c>
       <c r="C4">
-        <v>0.06522357415873614</v>
+        <v>0.2492160821155238</v>
       </c>
       <c r="D4">
-        <v>0.4509322897332879</v>
+        <v>0.2093289612403737</v>
       </c>
       <c r="E4">
-        <v>0.1243706147372832</v>
+        <v>0.05200739476280525</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.877941895747853</v>
+        <v>3.030344527809461</v>
       </c>
       <c r="H4">
-        <v>2.858151729406103</v>
+        <v>1.801312232896919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03810723964365792</v>
+        <v>0.03834443314034885</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4610814337375828</v>
+        <v>0.2162844418672947</v>
       </c>
       <c r="M4">
-        <v>0.5825629157716534</v>
+        <v>0.3945278836246047</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.4741439770292</v>
+        <v>1.978938049415547</v>
       </c>
       <c r="C5">
-        <v>0.06250252445360616</v>
+        <v>0.2390858608687125</v>
       </c>
       <c r="D5">
-        <v>0.4509366144258564</v>
+        <v>0.2069403320198688</v>
       </c>
       <c r="E5">
-        <v>0.1244515539518849</v>
+        <v>0.0520738621446224</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.866287541247601</v>
+        <v>2.971667195270953</v>
       </c>
       <c r="H5">
-        <v>2.854521414227236</v>
+        <v>1.776174661782647</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03782206304608593</v>
+        <v>0.03758625782175784</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4608611344327969</v>
+        <v>0.2120985666945714</v>
       </c>
       <c r="M5">
-        <v>0.5806133605023902</v>
+        <v>0.3817021886693013</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.471962719760597</v>
+        <v>1.966490128012595</v>
       </c>
       <c r="C6">
-        <v>0.06205096336978499</v>
+        <v>0.2374066685731719</v>
       </c>
       <c r="D6">
-        <v>0.4509397520208154</v>
+        <v>0.2065479615368417</v>
       </c>
       <c r="E6">
-        <v>0.1244652359089118</v>
+        <v>0.05208528404145341</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.864376417536874</v>
+        <v>2.961998261012155</v>
       </c>
       <c r="H6">
-        <v>2.853934059787122</v>
+        <v>1.772040305772066</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03777448882064505</v>
+        <v>0.03746036521367557</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4608277448831828</v>
+        <v>0.2114087565559117</v>
       </c>
       <c r="M6">
-        <v>0.580295135066109</v>
+        <v>0.3795826444528103</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.487256527939053</v>
+        <v>2.053193169685869</v>
       </c>
       <c r="C7">
-        <v>0.06518685913570721</v>
+        <v>0.2490792582916441</v>
       </c>
       <c r="D7">
-        <v>0.4509321858611344</v>
+        <v>0.2092964586357624</v>
       </c>
       <c r="E7">
-        <v>0.1243716900862495</v>
+        <v>0.05200826522918689</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.877783105903063</v>
+        <v>3.029548118136603</v>
       </c>
       <c r="H7">
-        <v>2.858101733023119</v>
+        <v>1.800970518846924</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03810340844400528</v>
+        <v>0.03833420741424831</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4610782488067287</v>
+        <v>0.2162276331355102</v>
       </c>
       <c r="M7">
-        <v>0.5825362549056408</v>
+        <v>0.3943542195792276</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.558543854466222</v>
+        <v>2.44397602899744</v>
       </c>
       <c r="C8">
-        <v>0.07906464960333892</v>
+        <v>0.3011048310346212</v>
       </c>
       <c r="D8">
-        <v>0.451250460706845</v>
+        <v>0.2220796690056233</v>
       </c>
       <c r="E8">
-        <v>0.1239940545654621</v>
+        <v>0.0517257548996497</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.940457788445144</v>
+        <v>3.339338736964066</v>
       </c>
       <c r="H8">
-        <v>2.878745272203531</v>
+        <v>1.934826244291116</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03952291335384572</v>
+        <v>0.04219717282675362</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4626472826748369</v>
+        <v>0.2383064993876758</v>
       </c>
       <c r="M8">
-        <v>0.5932247592036148</v>
+        <v>0.4611446675211255</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.712013223079509</v>
+        <v>3.247659184011752</v>
       </c>
       <c r="C9">
-        <v>0.1064326582447848</v>
+        <v>0.405988545273317</v>
       </c>
       <c r="D9">
-        <v>0.4531388747683707</v>
+        <v>0.2498831290995014</v>
       </c>
       <c r="E9">
-        <v>0.1233796748566487</v>
+        <v>0.05139286489943196</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.076144856087978</v>
+        <v>3.998546660823052</v>
       </c>
       <c r="H9">
-        <v>2.927383890766691</v>
+        <v>2.224094206387065</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04219338478493029</v>
+        <v>0.0498694391275194</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4673893541731928</v>
+        <v>0.2850801494269888</v>
       </c>
       <c r="M9">
-        <v>0.6170584856577008</v>
+        <v>0.5993136316405199</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.833148215152846</v>
+        <v>3.869606072621423</v>
       </c>
       <c r="C10">
-        <v>0.1266465873551397</v>
+        <v>0.48589893590119</v>
       </c>
       <c r="D10">
-        <v>0.4552983298912352</v>
+        <v>0.2723931825313031</v>
       </c>
       <c r="E10">
-        <v>0.1230050205094848</v>
+        <v>0.051299362638483</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.183786673331923</v>
+        <v>4.52484975044905</v>
       </c>
       <c r="H10">
-        <v>2.968156350206982</v>
+        <v>2.457852379566532</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04408810025389798</v>
+        <v>0.05564520082441149</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4718890933468316</v>
+        <v>0.3221655828129286</v>
       </c>
       <c r="M10">
-        <v>0.6363273277650592</v>
+        <v>0.7067627519483608</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.890086915892539</v>
+        <v>4.161638212946059</v>
       </c>
       <c r="C11">
-        <v>0.1358685822018231</v>
+        <v>0.5231615363909725</v>
       </c>
       <c r="D11">
-        <v>0.4564487184246957</v>
+        <v>0.2831927271034829</v>
       </c>
       <c r="E11">
-        <v>0.122851205526139</v>
+        <v>0.05129386007649206</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.234518149942232</v>
+        <v>4.776096057318568</v>
       </c>
       <c r="H11">
-        <v>2.987813270890342</v>
+        <v>2.570073634290054</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04493582610817981</v>
+        <v>0.05832385119881422</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4741569552042222</v>
+        <v>0.3397830392069778</v>
       </c>
       <c r="M11">
-        <v>0.6454767041233893</v>
+        <v>0.7573350703651585</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.911912449505053</v>
+        <v>4.273750307322473</v>
       </c>
       <c r="C12">
-        <v>0.1393647394902189</v>
+        <v>0.5374311375129821</v>
       </c>
       <c r="D12">
-        <v>0.4569085239665753</v>
+        <v>0.2873729743928948</v>
       </c>
       <c r="E12">
-        <v>0.1227953465700971</v>
+        <v>0.05129751375587954</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.25398524027247</v>
+        <v>4.873198123520297</v>
       </c>
       <c r="H12">
-        <v>2.995417431795204</v>
+        <v>2.613537378462183</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04525482530983282</v>
+        <v>0.05934759650158128</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4750475066813209</v>
+        <v>0.3465767409352054</v>
       </c>
       <c r="M12">
-        <v>0.6489966257364728</v>
+        <v>0.7767677429573396</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.907200178532321</v>
+        <v>4.249533330658721</v>
       </c>
       <c r="C13">
-        <v>0.1386115993940678</v>
+        <v>0.5343503585717428</v>
       </c>
       <c r="D13">
-        <v>0.4568084210331165</v>
+        <v>0.2864684722932651</v>
       </c>
       <c r="E13">
-        <v>0.1228072706461951</v>
+        <v>0.05129646451124259</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.24978122148417</v>
+        <v>4.852193745812201</v>
       </c>
       <c r="H13">
-        <v>2.993772584947124</v>
+        <v>2.604131511114417</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04518621240467979</v>
+        <v>0.05912666106035402</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4748542979352663</v>
+        <v>0.3451078945777937</v>
       </c>
       <c r="M13">
-        <v>0.6482360894509753</v>
+        <v>0.7725693548649204</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.891877220686467</v>
+        <v>4.170829815570642</v>
       </c>
       <c r="C14">
-        <v>0.1361561322700311</v>
+        <v>0.5243321419571885</v>
       </c>
       <c r="D14">
-        <v>0.456486062245375</v>
+        <v>0.2835347575179128</v>
       </c>
       <c r="E14">
-        <v>0.1228465621399799</v>
+        <v>0.05129404311346519</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.236114570962627</v>
+        <v>4.784043797380605</v>
       </c>
       <c r="H14">
-        <v>2.988435647166284</v>
+        <v>2.573629264941417</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04496211063164068</v>
+        <v>0.05840787427709415</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4742295848814422</v>
+        <v>0.3403394162918403</v>
       </c>
       <c r="M14">
-        <v>0.6457651825637925</v>
+        <v>0.758927915973274</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.882525870227653</v>
+        <v>4.12282728320929</v>
       </c>
       <c r="C15">
-        <v>0.1346526121336922</v>
+        <v>0.5182173115942703</v>
       </c>
       <c r="D15">
-        <v>0.456291757368021</v>
+        <v>0.2817499100194425</v>
       </c>
       <c r="E15">
-        <v>0.1228709401690766</v>
+        <v>0.05129332033066181</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.227776787577966</v>
+        <v>4.742563611870082</v>
       </c>
       <c r="H15">
-        <v>2.985187551685158</v>
+        <v>2.555075720610546</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04482457998411249</v>
+        <v>0.05796888595421024</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4738510662777031</v>
+        <v>0.3374349969389385</v>
       </c>
       <c r="M15">
-        <v>0.6442588777012617</v>
+        <v>0.7506101038093504</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.829464069745143</v>
+        <v>3.850722159883958</v>
       </c>
       <c r="C16">
-        <v>0.1260444571923927</v>
+        <v>0.4834843779198366</v>
       </c>
       <c r="D16">
-        <v>0.4552265318971251</v>
+        <v>0.2716995115279701</v>
       </c>
       <c r="E16">
-        <v>0.1230154068798122</v>
+        <v>0.05130050138239106</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.180506968372299</v>
+        <v>4.508689644664855</v>
       </c>
       <c r="H16">
-        <v>2.966894131180538</v>
+        <v>2.450646905369638</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04403241591127482</v>
+        <v>0.05547134267897036</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4717453279874491</v>
+        <v>0.3210305048621507</v>
       </c>
       <c r="M16">
-        <v>0.6357371232679228</v>
+        <v>0.703494982147518</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.797382312456989</v>
+        <v>3.686271704473597</v>
       </c>
       <c r="C17">
-        <v>0.1207705565940103</v>
+        <v>0.4624289211312487</v>
       </c>
       <c r="D17">
-        <v>0.4546160996245305</v>
+        <v>0.2656841125256619</v>
       </c>
       <c r="E17">
-        <v>0.1231082870710809</v>
+        <v>0.05131466746168201</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.15196215729236</v>
+        <v>4.36841920542463</v>
       </c>
       <c r="H17">
-        <v>2.955956536796123</v>
+        <v>2.388171897991043</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04354283177149654</v>
+        <v>0.05395365787792628</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.470510101149074</v>
+        <v>0.3111682384259495</v>
       </c>
       <c r="M17">
-        <v>0.6306076574445001</v>
+        <v>0.6750508900558643</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.779102313013482</v>
+        <v>3.592526635258878</v>
       </c>
       <c r="C18">
-        <v>0.117739639753438</v>
+        <v>0.4504022263702723</v>
       </c>
       <c r="D18">
-        <v>0.4542808110459191</v>
+        <v>0.2622762021428002</v>
       </c>
       <c r="E18">
-        <v>0.1231632735066208</v>
+        <v>0.05132627328608663</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.135709890142977</v>
+        <v>4.288835268809237</v>
       </c>
       <c r="H18">
-        <v>2.949769876619001</v>
+        <v>2.352783518289925</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04325989885047576</v>
+        <v>0.05308540994437649</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4698204243525623</v>
+        <v>0.3055650426604473</v>
       </c>
       <c r="M18">
-        <v>0.6276934538847101</v>
+        <v>0.6588473784516395</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.772942648742287</v>
+        <v>3.560924730224372</v>
       </c>
       <c r="C19">
-        <v>0.1167138462949424</v>
+        <v>0.4463438030419695</v>
       </c>
       <c r="D19">
-        <v>0.4541700040879846</v>
+        <v>0.2611309809480815</v>
       </c>
       <c r="E19">
-        <v>0.1231821596875777</v>
+        <v>0.05133078505380162</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.130235580899409</v>
+        <v>4.262070379168989</v>
       </c>
       <c r="H19">
-        <v>2.947693072776929</v>
+        <v>2.34089187028124</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04316387224621465</v>
+        <v>0.05279218335889979</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4695904830555406</v>
+        <v>0.303679379541947</v>
       </c>
       <c r="M19">
-        <v>0.6267129585259923</v>
+        <v>0.6533869822763592</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.800779606368053</v>
+        <v>3.703689066038635</v>
       </c>
       <c r="C20">
-        <v>0.1213317132881855</v>
+        <v>0.4646614418245179</v>
       </c>
       <c r="D20">
-        <v>0.4546794441981348</v>
+        <v>0.2663190116045513</v>
       </c>
       <c r="E20">
-        <v>0.1230982379421359</v>
+        <v>0.051312798775065</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.154983608163036</v>
+        <v>4.383236039152564</v>
       </c>
       <c r="H20">
-        <v>2.957110054918843</v>
+        <v>2.394765170441104</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04359508704616388</v>
+        <v>0.0541147194177185</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4706394412025645</v>
+        <v>0.3122108174688094</v>
       </c>
       <c r="M20">
-        <v>0.631149958237927</v>
+        <v>0.6780623233585175</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.896370774396416</v>
+        <v>4.193903660774424</v>
       </c>
       <c r="C21">
-        <v>0.136877252902508</v>
+        <v>0.5272701742234176</v>
       </c>
       <c r="D21">
-        <v>0.4565800905199637</v>
+        <v>0.284393911022363</v>
       </c>
       <c r="E21">
-        <v>0.1228349564976892</v>
+        <v>0.05129459505248679</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.240121825389508</v>
+        <v>4.804005635764497</v>
       </c>
       <c r="H21">
-        <v>2.98999887095033</v>
+        <v>2.582561188531997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04502798927835627</v>
+        <v>0.05861872662748979</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4744122162770168</v>
+        <v>0.3417365843158393</v>
       </c>
       <c r="M21">
-        <v>0.6464894478751049</v>
+        <v>0.7629267493879794</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.960384618502246</v>
+        <v>4.52330404055391</v>
       </c>
       <c r="C22">
-        <v>0.1470604876637083</v>
+        <v>0.5691318333158506</v>
       </c>
       <c r="D22">
-        <v>0.4579632106059108</v>
+        <v>0.2967413048116327</v>
       </c>
       <c r="E22">
-        <v>0.1226768017682831</v>
+        <v>0.05131637480505358</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.297258933860292</v>
+        <v>5.090577583784409</v>
       </c>
       <c r="H22">
-        <v>3.012429667674724</v>
+        <v>2.7110080601974</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04595273334862071</v>
+        <v>0.06161830613557839</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4770630725820268</v>
+        <v>0.3617550029069179</v>
       </c>
       <c r="M22">
-        <v>0.6568367665979196</v>
+        <v>0.8200563402580343</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.926078222754313</v>
+        <v>4.346592254990355</v>
       </c>
       <c r="C23">
-        <v>0.1416233129880879</v>
+        <v>0.5466928021807576</v>
       </c>
       <c r="D23">
-        <v>0.4572121124330266</v>
+        <v>0.2900986267194412</v>
       </c>
       <c r="E23">
-        <v>0.122759939377433</v>
+        <v>0.05130151724856358</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.266626242517646</v>
+        <v>4.936474337813024</v>
       </c>
       <c r="H23">
-        <v>3.000371949154498</v>
+        <v>2.641886185755027</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04546024618123923</v>
+        <v>0.06001150263172761</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4756313221279953</v>
+        <v>0.3509992904509431</v>
       </c>
       <c r="M23">
-        <v>0.6512847196336367</v>
+        <v>0.7893986185994208</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.799243178279028</v>
+        <v>3.695812202001719</v>
       </c>
       <c r="C24">
-        <v>0.1210780108737026</v>
+        <v>0.4636518771881128</v>
       </c>
       <c r="D24">
-        <v>0.4546507573486736</v>
+        <v>0.2660318174304592</v>
       </c>
       <c r="E24">
-        <v>0.1231027762057808</v>
+        <v>0.05131363285670432</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.153617116637292</v>
+        <v>4.376534067973438</v>
       </c>
       <c r="H24">
-        <v>2.956588233274033</v>
+        <v>2.391782712214479</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04357146699958037</v>
+        <v>0.05404189028491402</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4705809027995684</v>
+        <v>0.3117392606653908</v>
       </c>
       <c r="M24">
-        <v>0.6309046756751329</v>
+        <v>0.6767003919352561</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.669027243591586</v>
+        <v>3.025404617394884</v>
       </c>
       <c r="C25">
-        <v>0.0990111116033745</v>
+        <v>0.3772022136589896</v>
       </c>
       <c r="D25">
-        <v>0.4524925305304492</v>
+        <v>0.2420286443623354</v>
       </c>
       <c r="E25">
-        <v>0.1235323933191461</v>
+        <v>0.05145768483635926</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4.038053008738444</v>
+        <v>3.813669881870652</v>
       </c>
       <c r="H25">
-        <v>2.913345934018508</v>
+        <v>2.142499984600448</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04148289133994609</v>
+        <v>0.0477758619759463</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.465928176815595</v>
+        <v>0.2719965294173363</v>
       </c>
       <c r="M25">
-        <v>0.6103025597813598</v>
+        <v>0.5610159444982443</v>
       </c>
       <c r="N25">
         <v>0</v>
